--- a/Interface/Hardware/Assembly/assembly record.xlsx
+++ b/Interface/Hardware/Assembly/assembly record.xlsx
@@ -650,7 +650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -775,13 +775,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,19 +811,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -841,13 +845,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
@@ -855,7 +852,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -869,63 +866,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1255,7 +1196,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,8 +1204,8 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1280,7 +1221,7 @@
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1297,8 +1238,10 @@
       <c r="C2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,8 +1254,10 @@
       <c r="C3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,8 +1270,10 @@
       <c r="C4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,8 +1286,10 @@
       <c r="C5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,8 +1302,10 @@
       <c r="C6" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,8 +1318,10 @@
       <c r="C7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,8 +1334,10 @@
       <c r="C8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,8 +1350,10 @@
       <c r="C9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,8 +1366,10 @@
       <c r="C10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,8 +1382,10 @@
       <c r="C11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,8 +1398,10 @@
       <c r="C12" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,8 +1414,10 @@
       <c r="C13" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,8 +1430,10 @@
       <c r="C14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,8 +1446,10 @@
       <c r="C15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,8 +1462,10 @@
       <c r="C16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,8 +1478,10 @@
       <c r="C17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,8 +1494,10 @@
       <c r="C18" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,8 +1510,10 @@
       <c r="C19" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,8 +1526,10 @@
       <c r="C20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,8 +1542,10 @@
       <c r="C21" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,8 +1558,10 @@
       <c r="C22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,8 +1574,10 @@
       <c r="C23" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F23" s="13"/>
@@ -1607,8 +1592,10 @@
       <c r="C24" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F24" s="13"/>
@@ -1623,8 +1610,10 @@
       <c r="C25" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F25" s="13"/>
@@ -1639,8 +1628,10 @@
       <c r="C26" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>119</v>
       </c>
       <c r="F26" s="13"/>
@@ -1655,8 +1646,10 @@
       <c r="C27" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="13"/>
@@ -1671,8 +1664,10 @@
       <c r="C28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="13"/>
@@ -1687,8 +1682,10 @@
       <c r="C29" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="13"/>
@@ -1703,8 +1700,10 @@
       <c r="C30" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>123</v>
       </c>
       <c r="F30" s="13"/>
@@ -1719,8 +1718,10 @@
       <c r="C31" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,8 +1734,10 @@
       <c r="C32" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,8 +1750,10 @@
       <c r="C33" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,8 +1766,10 @@
       <c r="C34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F34" s="13"/>
@@ -1777,8 +1784,10 @@
       <c r="C35" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>127</v>
       </c>
       <c r="F35" s="13"/>
@@ -1793,8 +1802,10 @@
       <c r="C36" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="13"/>
@@ -1809,8 +1820,10 @@
       <c r="C37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="13"/>
@@ -1825,8 +1838,10 @@
       <c r="C38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,8 +1854,10 @@
       <c r="C39" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="13"/>
@@ -1855,8 +1872,10 @@
       <c r="C40" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F40" s="13"/>
@@ -1871,8 +1890,10 @@
       <c r="C41" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="13"/>
@@ -1887,8 +1908,10 @@
       <c r="C42" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>133</v>
       </c>
       <c r="F42" s="13"/>
@@ -1903,8 +1926,10 @@
       <c r="C43" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="13"/>
@@ -1919,7 +1944,9 @@
       <c r="C44" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="19">
+        <v>43053</v>
+      </c>
       <c r="E44" s="12" t="s">
         <v>189</v>
       </c>
@@ -1935,7 +1962,9 @@
       <c r="C45" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="19">
+        <v>43054</v>
+      </c>
       <c r="E45" s="12" t="s">
         <v>136</v>
       </c>
@@ -1951,7 +1980,9 @@
       <c r="C46" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="19">
+        <v>43053</v>
+      </c>
       <c r="E46" s="12" t="s">
         <v>191</v>
       </c>
@@ -1967,7 +1998,9 @@
       <c r="C47" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="19">
+        <v>43053</v>
+      </c>
       <c r="E47" s="12" t="s">
         <v>184</v>
       </c>
@@ -1983,7 +2016,9 @@
       <c r="C48" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="19">
+        <v>43053</v>
+      </c>
       <c r="E48" s="12" t="s">
         <v>185</v>
       </c>
@@ -1999,7 +2034,9 @@
       <c r="C49" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="19">
+        <v>43053</v>
+      </c>
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
     </row>
@@ -2013,7 +2050,9 @@
       <c r="C50" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="19">
+        <v>43053</v>
+      </c>
       <c r="E50" s="12" t="s">
         <v>194</v>
       </c>
@@ -2029,7 +2068,9 @@
       <c r="C51" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="19">
+        <v>43053</v>
+      </c>
       <c r="E51" s="12" t="s">
         <v>195</v>
       </c>
@@ -2045,7 +2086,9 @@
       <c r="C52" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="19">
+        <v>43054</v>
+      </c>
       <c r="E52" s="12" t="s">
         <v>205</v>
       </c>
@@ -2059,7 +2102,9 @@
         <v>197</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="19"/>
+      <c r="D53" s="19">
+        <v>43054</v>
+      </c>
       <c r="E53" s="12" t="s">
         <v>135</v>
       </c>
@@ -2073,7 +2118,9 @@
         <v>197</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="19"/>
+      <c r="D54" s="19">
+        <v>43054</v>
+      </c>
       <c r="E54" s="12" t="s">
         <v>137</v>
       </c>
@@ -2089,7 +2136,9 @@
       <c r="C55" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="19">
+        <v>43053</v>
+      </c>
       <c r="E55" s="12" t="s">
         <v>198</v>
       </c>
@@ -2105,7 +2154,9 @@
       <c r="C56" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="19">
+        <v>43053</v>
+      </c>
       <c r="E56" s="12" t="s">
         <v>139</v>
       </c>
@@ -2121,7 +2172,9 @@
       <c r="C57" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="19">
+        <v>43054</v>
+      </c>
       <c r="E57" s="12" t="s">
         <v>140</v>
       </c>
@@ -2137,7 +2190,9 @@
       <c r="C58" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="19">
+        <v>43053</v>
+      </c>
       <c r="E58" s="12" t="s">
         <v>186</v>
       </c>
@@ -2153,7 +2208,9 @@
       <c r="C59" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="19">
+        <v>43053</v>
+      </c>
       <c r="E59" s="12" t="s">
         <v>187</v>
       </c>
@@ -2169,7 +2226,9 @@
       <c r="C60" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="19">
+        <v>43054</v>
+      </c>
       <c r="E60" s="12" t="s">
         <v>141</v>
       </c>
@@ -2185,7 +2244,9 @@
       <c r="C61" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="19">
+        <v>43053</v>
+      </c>
       <c r="E61" s="12" t="s">
         <v>200</v>
       </c>
@@ -2201,7 +2262,9 @@
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="19">
+        <v>43053</v>
+      </c>
       <c r="E62" s="12" t="s">
         <v>202</v>
       </c>
@@ -2217,8 +2280,10 @@
       <c r="C63" s="12">
         <v>0</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="11" t="s">
+      <c r="D63" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>142</v>
       </c>
       <c r="F63" s="13"/>
@@ -2233,8 +2298,10 @@
       <c r="C64" s="12">
         <v>0</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>143</v>
       </c>
       <c r="F64" s="13"/>
@@ -2249,7 +2316,9 @@
       <c r="C65" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="19">
+        <v>43053</v>
+      </c>
       <c r="E65" s="12" t="s">
         <v>201</v>
       </c>
@@ -2265,7 +2334,9 @@
       <c r="C66" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="19">
+        <v>43054</v>
+      </c>
       <c r="E66" s="12" t="s">
         <v>144</v>
       </c>
@@ -2281,7 +2352,9 @@
       <c r="C67" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="19">
+        <v>43053</v>
+      </c>
       <c r="E67" s="12" t="s">
         <v>203</v>
       </c>
@@ -2297,7 +2370,9 @@
       <c r="C68" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="19">
+        <v>43053</v>
+      </c>
       <c r="E68" s="12" t="s">
         <v>204</v>
       </c>
@@ -2313,8 +2388,10 @@
       <c r="C69" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="11"/>
+      <c r="D69" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E69" s="12"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,8 +2404,10 @@
       <c r="C70" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="11"/>
+      <c r="D70" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,8 +2420,10 @@
       <c r="C71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="11"/>
+      <c r="D71" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E71" s="12"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,8 +2436,10 @@
       <c r="C72" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="11"/>
+      <c r="D72" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E72" s="12"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,8 +2452,10 @@
       <c r="C73" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="11"/>
+      <c r="D73" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E73" s="12"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2383,8 +2468,10 @@
       <c r="C74" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="11"/>
+      <c r="D74" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,8 +2484,10 @@
       <c r="C75" s="12">
         <v>390</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="11"/>
+      <c r="D75" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,8 +2500,10 @@
       <c r="C76" s="12">
         <v>390</v>
       </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="11"/>
+      <c r="D76" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E76" s="12"/>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,8 +2516,10 @@
       <c r="C77" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="11"/>
+      <c r="D77" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E77" s="12"/>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,8 +2532,10 @@
       <c r="C78" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="11"/>
+      <c r="D78" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E78" s="12"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2453,8 +2548,10 @@
       <c r="C79" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="11"/>
+      <c r="D79" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E79" s="12"/>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,8 +2564,10 @@
       <c r="C80" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="11"/>
+      <c r="D80" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E80" s="12"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,8 +2580,10 @@
       <c r="C81" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="11"/>
+      <c r="D81" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E81" s="12"/>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,8 +2596,10 @@
       <c r="C82" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="11"/>
+      <c r="D82" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,8 +2612,10 @@
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="11"/>
+      <c r="D83" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E83" s="12"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,8 +2628,10 @@
       <c r="C84" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="11"/>
+      <c r="D84" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E84" s="12"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,8 +2644,10 @@
       <c r="C85" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="11"/>
+      <c r="D85" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E85" s="12"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,8 +2660,10 @@
       <c r="C86" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="11"/>
+      <c r="D86" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E86" s="12"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,8 +2676,10 @@
       <c r="C87" s="12">
         <v>50</v>
       </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="11"/>
+      <c r="D87" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E87" s="12"/>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,7 +2693,7 @@
         <v>148</v>
       </c>
       <c r="D88" s="19"/>
-      <c r="E88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="13" t="s">
         <v>170</v>
       </c>
@@ -2595,8 +2708,10 @@
       <c r="C89" s="12">
         <v>50</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="11"/>
+      <c r="D89" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E89" s="12"/>
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,7 +2725,7 @@
         <v>148</v>
       </c>
       <c r="D90" s="19"/>
-      <c r="E90" s="11"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="13" t="s">
         <v>170</v>
       </c>
@@ -2625,8 +2740,12 @@
       <c r="C91" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="11"/>
+      <c r="D91" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0</v>
+      </c>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,8 +2758,10 @@
       <c r="C92" s="12">
         <v>100</v>
       </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="11"/>
+      <c r="D92" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E92" s="12"/>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,8 +2774,10 @@
       <c r="C93" s="12">
         <v>100</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="11"/>
+      <c r="D93" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E93" s="12"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,8 +2790,10 @@
       <c r="C94" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="11"/>
+      <c r="D94" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E94" s="12"/>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2681,8 +2806,10 @@
       <c r="C95" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="11"/>
+      <c r="D95" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E95" s="12"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,8 +2822,10 @@
       <c r="C96" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="11"/>
+      <c r="D96" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E96" s="12"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,8 +2838,10 @@
       <c r="C97" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="11"/>
+      <c r="D97" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E97" s="12"/>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,8 +2854,10 @@
       <c r="C98" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="19">
+        <v>43054</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>176</v>
       </c>
       <c r="F98" s="13"/>
@@ -2739,8 +2872,10 @@
       <c r="C99" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="11"/>
+      <c r="D99" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E99" s="12"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,8 +2888,10 @@
       <c r="C100" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="11"/>
+      <c r="D100" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E100" s="12"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,8 +2904,10 @@
       <c r="C101" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="11"/>
+      <c r="D101" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E101" s="12"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,8 +2920,10 @@
       <c r="C102" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="11"/>
+      <c r="D102" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E102" s="12"/>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2795,8 +2936,10 @@
       <c r="C103" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="15"/>
+      <c r="D103" s="19">
+        <v>43053</v>
+      </c>
+      <c r="E103" s="16"/>
       <c r="F103" s="18"/>
     </row>
   </sheetData>
@@ -2806,14 +2949,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F103">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>INDIRECT("D"&amp;ROW())&lt;&gt;""</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND($D2&lt;&gt;"",$F2="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("F"&amp;ROW())="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($D2&lt;&gt;"",$F2="X")</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>INDIRECT("D"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4372,18 +4515,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F103">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F103">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND($D2&lt;&gt;"",$F2="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>INDIRECT("F"&amp;ROW())="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>INDIRECT("D"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Interface/Hardware/Assembly/assembly record.xlsx
+++ b/Interface/Hardware/Assembly/assembly record.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BME\2017-18_I\Témalabor\Clock Synchronization\Interface\Hardware\Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BME\2017-18_I\Temalabor\Clock Synchronization\Interface\Hardware\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{4AF7682B-7B14-4F98-81F4-B43FBB6FD1CB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{4AF7682B-7B14-4F98-81F4-B43FBB6FD1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="card #1" sheetId="1" r:id="rId1"/>
-    <sheet name="card #2" sheetId="3" r:id="rId2"/>
+    <sheet name="card #2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C1E334-7F0D-4760-8DFF-BC0F2D4680DE}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,11 +2965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FAE557-9CBB-4DDB-9458-030CCD5522CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB6F2-06AB-416E-93B6-60BFF9DB260F}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,7 +3011,9 @@
       <c r="C2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16">
+        <v>43056</v>
+      </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
     </row>
@@ -3025,7 +3027,9 @@
       <c r="C3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16">
+        <v>43056</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
@@ -3039,7 +3043,9 @@
       <c r="C4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>43056</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
     </row>
@@ -3053,7 +3059,9 @@
       <c r="C5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>43056</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
     </row>
@@ -3067,7 +3075,9 @@
       <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>43056</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
@@ -3081,7 +3091,9 @@
       <c r="C7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>43056</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
@@ -3095,7 +3107,9 @@
       <c r="C8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16">
+        <v>43055</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
@@ -3109,7 +3123,9 @@
       <c r="C9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>43055</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
@@ -3123,7 +3139,9 @@
       <c r="C10" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>43055</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
@@ -3137,7 +3155,9 @@
       <c r="C11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16">
+        <v>43055</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
     </row>
@@ -3193,7 +3213,9 @@
       <c r="C15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="16">
+        <v>43056</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
     </row>
@@ -3207,7 +3229,9 @@
       <c r="C16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="16">
+        <v>43056</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
     </row>
@@ -3221,7 +3245,9 @@
       <c r="C17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16">
+        <v>43056</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
     </row>
@@ -3235,7 +3261,9 @@
       <c r="C18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="16">
+        <v>43056</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
     </row>
@@ -3249,7 +3277,9 @@
       <c r="C19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="16">
+        <v>43056</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
@@ -3263,7 +3293,9 @@
       <c r="C20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="16">
+        <v>43056</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
     </row>
@@ -3277,7 +3309,9 @@
       <c r="C21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16">
+        <v>43056</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
@@ -3291,7 +3325,9 @@
       <c r="C22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="16">
+        <v>43056</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
     </row>
@@ -3305,7 +3341,9 @@
       <c r="C23" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="16">
+        <v>43056</v>
+      </c>
       <c r="E23" s="10" t="s">
         <v>116</v>
       </c>
@@ -3321,7 +3359,9 @@
       <c r="C24" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="16">
+        <v>43056</v>
+      </c>
       <c r="E24" s="10" t="s">
         <v>117</v>
       </c>
@@ -3337,7 +3377,9 @@
       <c r="C25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="16">
+        <v>43056</v>
+      </c>
       <c r="E25" s="10" t="s">
         <v>118</v>
       </c>
@@ -3353,7 +3395,9 @@
       <c r="C26" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16">
+        <v>43056</v>
+      </c>
       <c r="E26" s="10" t="s">
         <v>119</v>
       </c>
@@ -3369,7 +3413,9 @@
       <c r="C27" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="16">
+        <v>43056</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>120</v>
       </c>
@@ -3385,7 +3431,9 @@
       <c r="C28" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="16">
+        <v>43056</v>
+      </c>
       <c r="E28" s="10" t="s">
         <v>121</v>
       </c>
@@ -3401,7 +3449,9 @@
       <c r="C29" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="16">
+        <v>43056</v>
+      </c>
       <c r="E29" s="10" t="s">
         <v>122</v>
       </c>
@@ -3417,7 +3467,9 @@
       <c r="C30" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="16">
+        <v>43056</v>
+      </c>
       <c r="E30" s="10" t="s">
         <v>123</v>
       </c>
@@ -3433,7 +3485,9 @@
       <c r="C31" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="16">
+        <v>43056</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
     </row>
@@ -3447,7 +3501,9 @@
       <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="16">
+        <v>43056</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
     </row>
@@ -3461,7 +3517,9 @@
       <c r="C33" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="16">
+        <v>43056</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
     </row>
@@ -3475,7 +3533,9 @@
       <c r="C34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="16">
+        <v>43056</v>
+      </c>
       <c r="E34" s="10" t="s">
         <v>126</v>
       </c>
@@ -3491,7 +3551,9 @@
       <c r="C35" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="16">
+        <v>43056</v>
+      </c>
       <c r="E35" s="10" t="s">
         <v>127</v>
       </c>
@@ -3507,7 +3569,9 @@
       <c r="C36" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="16">
+        <v>43056</v>
+      </c>
       <c r="E36" s="10" t="s">
         <v>128</v>
       </c>
@@ -3539,7 +3603,9 @@
       <c r="C38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="16">
+        <v>43056</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
     </row>
@@ -3553,7 +3619,9 @@
       <c r="C39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="16">
+        <v>43056</v>
+      </c>
       <c r="E39" s="10" t="s">
         <v>126</v>
       </c>
@@ -3569,7 +3637,9 @@
       <c r="C40" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16">
+        <v>43056</v>
+      </c>
       <c r="E40" s="10" t="s">
         <v>131</v>
       </c>
@@ -3601,7 +3671,9 @@
       <c r="C42" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="16">
+        <v>43056</v>
+      </c>
       <c r="E42" s="10" t="s">
         <v>133</v>
       </c>
@@ -3633,7 +3705,9 @@
       <c r="C44" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="16"/>
+      <c r="D44" s="16">
+        <v>43056</v>
+      </c>
       <c r="E44" s="10" t="s">
         <v>188</v>
       </c>
@@ -3649,7 +3723,9 @@
       <c r="C45" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="16">
+        <v>43056</v>
+      </c>
       <c r="E45" s="10" t="s">
         <v>136</v>
       </c>
@@ -3681,7 +3757,9 @@
       <c r="C47" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="16">
+        <v>43056</v>
+      </c>
       <c r="E47" s="10" t="s">
         <v>183</v>
       </c>
@@ -3697,7 +3775,9 @@
       <c r="C48" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="16"/>
+      <c r="D48" s="16">
+        <v>43056</v>
+      </c>
       <c r="E48" s="10" t="s">
         <v>184</v>
       </c>
@@ -3713,7 +3793,9 @@
       <c r="C49" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="16">
+        <v>43056</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
     </row>
@@ -3727,7 +3809,9 @@
       <c r="C50" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="16">
+        <v>43056</v>
+      </c>
       <c r="E50" s="10" t="s">
         <v>193</v>
       </c>
@@ -3743,7 +3827,9 @@
       <c r="C51" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="16">
+        <v>43056</v>
+      </c>
       <c r="E51" s="10" t="s">
         <v>194</v>
       </c>
@@ -3759,7 +3845,9 @@
       <c r="C52" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="16">
+        <v>43056</v>
+      </c>
       <c r="E52" s="10" t="s">
         <v>204</v>
       </c>
@@ -3773,7 +3861,9 @@
         <v>196</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="16">
+        <v>43056</v>
+      </c>
       <c r="E53" s="10" t="s">
         <v>135</v>
       </c>
@@ -3803,7 +3893,9 @@
       <c r="C55" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="16"/>
+      <c r="D55" s="16">
+        <v>43056</v>
+      </c>
       <c r="E55" s="10" t="s">
         <v>197</v>
       </c>
@@ -3819,7 +3911,9 @@
       <c r="C56" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="16">
+        <v>43056</v>
+      </c>
       <c r="E56" s="10" t="s">
         <v>138</v>
       </c>
@@ -3835,7 +3929,9 @@
       <c r="C57" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="16"/>
+      <c r="D57" s="16">
+        <v>43056</v>
+      </c>
       <c r="E57" s="10" t="s">
         <v>139</v>
       </c>
@@ -3851,7 +3947,9 @@
       <c r="C58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="D58" s="16">
+        <v>43056</v>
+      </c>
       <c r="E58" s="10" t="s">
         <v>185</v>
       </c>
@@ -3867,7 +3965,9 @@
       <c r="C59" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="16"/>
+      <c r="D59" s="16">
+        <v>43056</v>
+      </c>
       <c r="E59" s="10" t="s">
         <v>186</v>
       </c>
@@ -3883,7 +3983,9 @@
       <c r="C60" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="16"/>
+      <c r="D60" s="16">
+        <v>43056</v>
+      </c>
       <c r="E60" s="10" t="s">
         <v>140</v>
       </c>
@@ -3899,7 +4001,9 @@
       <c r="C61" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="16">
+        <v>43056</v>
+      </c>
       <c r="E61" s="10" t="s">
         <v>199</v>
       </c>
@@ -3915,7 +4019,9 @@
       <c r="C62" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="16"/>
+      <c r="D62" s="16">
+        <v>43056</v>
+      </c>
       <c r="E62" s="10" t="s">
         <v>201</v>
       </c>
@@ -3931,7 +4037,9 @@
       <c r="C63" s="10">
         <v>0</v>
       </c>
-      <c r="D63" s="16"/>
+      <c r="D63" s="16">
+        <v>43056</v>
+      </c>
       <c r="E63" s="10" t="s">
         <v>141</v>
       </c>
@@ -3947,7 +4055,9 @@
       <c r="C64" s="10">
         <v>0</v>
       </c>
-      <c r="D64" s="16"/>
+      <c r="D64" s="16">
+        <v>43056</v>
+      </c>
       <c r="E64" s="10" t="s">
         <v>142</v>
       </c>
@@ -3963,7 +4073,9 @@
       <c r="C65" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="16"/>
+      <c r="D65" s="16">
+        <v>43056</v>
+      </c>
       <c r="E65" s="10" t="s">
         <v>200</v>
       </c>
@@ -3979,7 +4091,9 @@
       <c r="C66" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="16"/>
+      <c r="D66" s="16">
+        <v>43056</v>
+      </c>
       <c r="E66" s="10" t="s">
         <v>143</v>
       </c>
@@ -3995,7 +4109,9 @@
       <c r="C67" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="16"/>
+      <c r="D67" s="16">
+        <v>43056</v>
+      </c>
       <c r="E67" s="10" t="s">
         <v>202</v>
       </c>
@@ -4011,7 +4127,9 @@
       <c r="C68" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="16"/>
+      <c r="D68" s="16">
+        <v>43056</v>
+      </c>
       <c r="E68" s="10" t="s">
         <v>203</v>
       </c>
@@ -4027,7 +4145,9 @@
       <c r="C69" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="16"/>
+      <c r="D69" s="16">
+        <v>43056</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
     </row>
@@ -4041,7 +4161,9 @@
       <c r="C70" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="16"/>
+      <c r="D70" s="16">
+        <v>43056</v>
+      </c>
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
     </row>
@@ -4055,7 +4177,9 @@
       <c r="C71" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D71" s="16"/>
+      <c r="D71" s="16">
+        <v>43056</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
     </row>
@@ -4083,7 +4207,9 @@
       <c r="C73" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="16"/>
+      <c r="D73" s="16">
+        <v>43056</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
     </row>
@@ -4097,7 +4223,9 @@
       <c r="C74" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="16"/>
+      <c r="D74" s="16">
+        <v>43056</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
     </row>
@@ -4111,7 +4239,9 @@
       <c r="C75" s="10">
         <v>390</v>
       </c>
-      <c r="D75" s="16"/>
+      <c r="D75" s="16">
+        <v>43056</v>
+      </c>
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
     </row>
@@ -4125,7 +4255,9 @@
       <c r="C76" s="10">
         <v>390</v>
       </c>
-      <c r="D76" s="16"/>
+      <c r="D76" s="16">
+        <v>43056</v>
+      </c>
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
     </row>
@@ -4137,9 +4269,11 @@
         <v>165</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="D77" s="16">
+        <v>43055</v>
+      </c>
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
     </row>
@@ -4153,7 +4287,9 @@
       <c r="C78" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="16"/>
+      <c r="D78" s="16">
+        <v>43055</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
     </row>
@@ -4165,9 +4301,11 @@
         <v>165</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="D79" s="16">
+        <v>43055</v>
+      </c>
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
     </row>
@@ -4181,7 +4319,9 @@
       <c r="C80" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="16"/>
+      <c r="D80" s="16">
+        <v>43055</v>
+      </c>
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
     </row>
@@ -4193,9 +4333,11 @@
         <v>165</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="D81" s="16">
+        <v>43055</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
     </row>
@@ -4209,7 +4351,9 @@
       <c r="C82" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="16"/>
+      <c r="D82" s="16">
+        <v>43055</v>
+      </c>
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
     </row>
@@ -4223,7 +4367,9 @@
       <c r="C83" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D83" s="16"/>
+      <c r="D83" s="16">
+        <v>43055</v>
+      </c>
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
     </row>
@@ -4237,7 +4383,9 @@
       <c r="C84" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="16"/>
+      <c r="D84" s="16">
+        <v>43056</v>
+      </c>
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
     </row>
@@ -4251,7 +4399,9 @@
       <c r="C85" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="16"/>
+      <c r="D85" s="16">
+        <v>43055</v>
+      </c>
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
     </row>
@@ -4265,7 +4415,9 @@
       <c r="C86" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="16"/>
+      <c r="D86" s="16">
+        <v>43056</v>
+      </c>
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
     </row>
@@ -4279,7 +4431,9 @@
       <c r="C87" s="10">
         <v>50</v>
       </c>
-      <c r="D87" s="16"/>
+      <c r="D87" s="16">
+        <v>43056</v>
+      </c>
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
     </row>
@@ -4339,7 +4493,9 @@
       <c r="C91" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="16"/>
+      <c r="D91" s="16">
+        <v>43056</v>
+      </c>
       <c r="E91" s="10">
         <v>0</v>
       </c>
@@ -4355,7 +4511,9 @@
       <c r="C92" s="10">
         <v>100</v>
       </c>
-      <c r="D92" s="16"/>
+      <c r="D92" s="16">
+        <v>43056</v>
+      </c>
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
     </row>
@@ -4369,7 +4527,9 @@
       <c r="C93" s="10">
         <v>100</v>
       </c>
-      <c r="D93" s="16"/>
+      <c r="D93" s="16">
+        <v>43056</v>
+      </c>
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
     </row>
@@ -4383,7 +4543,9 @@
       <c r="C94" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="16"/>
+      <c r="D94" s="16">
+        <v>43056</v>
+      </c>
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
     </row>
@@ -4397,7 +4559,9 @@
       <c r="C95" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="16"/>
+      <c r="D95" s="16">
+        <v>43055</v>
+      </c>
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
     </row>
@@ -4411,7 +4575,9 @@
       <c r="C96" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="16"/>
+      <c r="D96" s="16">
+        <v>43056</v>
+      </c>
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
     </row>
@@ -4425,7 +4591,9 @@
       <c r="C97" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D97" s="16"/>
+      <c r="D97" s="16">
+        <v>43056</v>
+      </c>
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
     </row>
@@ -4455,7 +4623,9 @@
       <c r="C99" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D99" s="16"/>
+      <c r="D99" s="16">
+        <v>43056</v>
+      </c>
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
     </row>
@@ -4469,7 +4639,9 @@
       <c r="C100" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D100" s="16"/>
+      <c r="D100" s="16">
+        <v>43056</v>
+      </c>
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
     </row>
@@ -4483,7 +4655,9 @@
       <c r="C101" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D101" s="16"/>
+      <c r="D101" s="16">
+        <v>43056</v>
+      </c>
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
     </row>
@@ -4497,7 +4671,9 @@
       <c r="C102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D102" s="16"/>
+      <c r="D102" s="16">
+        <v>43056</v>
+      </c>
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
     </row>
@@ -4511,7 +4687,9 @@
       <c r="C103" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="17">
+        <v>43056</v>
+      </c>
       <c r="E103" s="14"/>
       <c r="F103" s="15"/>
     </row>
@@ -4523,7 +4701,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F103">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND($D2&lt;&gt;"",$F2="X")</formula>
+      <formula>(INDIRECT("D"&amp;ROW())&lt;&gt;"")*(INDIRECT("F"&amp;ROW())="X")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("F"&amp;ROW())="X"</formula>

--- a/Interface/Hardware/Assembly/assembly record.xlsx
+++ b/Interface/Hardware/Assembly/assembly record.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="207">
   <si>
     <t>designation</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>10k</t>
+  </si>
+  <si>
+    <t>47ohm</t>
   </si>
 </sst>
 </file>
@@ -2968,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB6F2-06AB-416E-93B6-60BFF9DB260F}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3174,9 @@
       <c r="C12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>43060</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
     </row>
@@ -3185,7 +3190,9 @@
       <c r="C13" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>43060</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
     </row>
@@ -3199,7 +3206,9 @@
       <c r="C14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>46712</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
     </row>
@@ -3587,7 +3596,9 @@
       <c r="C37" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="16">
+        <v>43060</v>
+      </c>
       <c r="E37" s="10" t="s">
         <v>129</v>
       </c>
@@ -3655,7 +3666,9 @@
       <c r="C41" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="16">
+        <v>43060</v>
+      </c>
       <c r="E41" s="10" t="s">
         <v>132</v>
       </c>
@@ -3689,7 +3702,9 @@
       <c r="C43" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="16">
+        <v>43060</v>
+      </c>
       <c r="E43" s="10" t="s">
         <v>134</v>
       </c>
@@ -3741,7 +3756,9 @@
       <c r="C46" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="16">
+        <v>43060</v>
+      </c>
       <c r="E46" s="10" t="s">
         <v>190</v>
       </c>
@@ -3877,7 +3894,9 @@
         <v>196</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="16">
+        <v>43060</v>
+      </c>
       <c r="E54" s="10" t="s">
         <v>137</v>
       </c>
@@ -4193,7 +4212,9 @@
       <c r="C72" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="16"/>
+      <c r="D72" s="16">
+        <v>43060</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
     </row>
@@ -4463,8 +4484,12 @@
       <c r="C89" s="10">
         <v>50</v>
       </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="10"/>
+      <c r="D89" s="16">
+        <v>43060</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,7 +4632,9 @@
       <c r="C98" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D98" s="16"/>
+      <c r="D98" s="16">
+        <v>43060</v>
+      </c>
       <c r="E98" s="10" t="s">
         <v>175</v>
       </c>
